--- a/Kathmandu_FG_D/Landuse_FG_D.xlsx
+++ b/Kathmandu_FG_D/Landuse_FG_D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eminyahyamentese/Documents/KathmanduDEMO/FG_D_Planners/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucesgjc_ucl_ac_uk/Documents/Documents/GitHub/DataProductionMatlab/Kathmandu_FG_D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56686B83-6EA6-C242-A492-09E769CF830F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{56686B83-6EA6-C242-A492-09E769CF830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4665EA-7295-4772-BA44-91155B582266}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3828" yWindow="2472" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Landuse_FG_D" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>zoneID</t>
   </si>
   <si>
-    <t>LUf</t>
-  </si>
-  <si>
     <t>floorAreaR</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>LuF</t>
   </si>
 </sst>
 </file>
@@ -973,22 +973,22 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1"/>
+    <col min="4" max="4" width="35.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,22 +999,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1308</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>49.618000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2">
         <v>69.823999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1059,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>66.799000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1076,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
         <v>47.182000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2966</v>
       </c>
@@ -1093,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H6" s="2">
         <v>7.9210000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1076</v>
       </c>
@@ -1113,16 +1113,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -1133,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2">
         <v>3.42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1391</v>
       </c>
@@ -1150,16 +1150,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>4.9880000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1297</v>
       </c>
@@ -1170,16 +1170,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2">
         <v>7.1989999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>738</v>
       </c>
@@ -1190,16 +1190,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2">
         <v>2.7109999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1290</v>
       </c>
@@ -1210,16 +1210,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2">
         <v>3.4529999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -1230,13 +1230,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2">
         <v>8.0109999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1152</v>
       </c>
@@ -1247,16 +1247,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2">
         <v>4.9089999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9161</v>
       </c>
@@ -1267,16 +1267,16 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2">
         <v>21.18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1453</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2">
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1110</v>
       </c>
@@ -1307,16 +1307,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>9.157</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>775</v>
       </c>
@@ -1327,16 +1327,16 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2">
         <v>4.835</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -1347,13 +1347,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2">
         <v>13.231999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2218</v>
       </c>
@@ -1364,16 +1364,16 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2">
         <v>5.1980000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -1384,13 +1384,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2">
         <v>2.7029999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>6309</v>
       </c>
@@ -1401,16 +1401,16 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
         <v>34.070999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2471</v>
       </c>
@@ -1421,16 +1421,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H23" s="2">
         <v>12.507999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -1441,13 +1441,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="2">
         <v>2.9670000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -1458,13 +1458,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="2">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -1475,13 +1475,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="2">
         <v>2.129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -1492,13 +1492,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -1509,13 +1509,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="2">
         <v>3.7109999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -1526,13 +1526,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="2">
         <v>2.0910000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -1543,13 +1543,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2">
         <v>0.437</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -1560,13 +1560,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2">
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -1577,13 +1577,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2">
         <v>0.191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -1594,13 +1594,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="2">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -1611,13 +1611,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" s="2">
         <v>0.313</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -1628,13 +1628,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35" s="2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -1645,13 +1645,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2">
         <v>0.34</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -1679,13 +1679,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -1696,13 +1696,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="2">
         <v>4.8390000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -1713,13 +1713,13 @@
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2">
         <v>7.2169999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -1730,13 +1730,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="2">
         <v>26.57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -1747,13 +1747,13 @@
         <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="2">
         <v>3.056</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>556</v>
       </c>
@@ -1764,16 +1764,16 @@
         <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" s="2">
         <v>1.381</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1107</v>
       </c>
@@ -1784,16 +1784,16 @@
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" s="2">
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>443</v>
       </c>
@@ -1804,16 +1804,16 @@
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="2">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>273</v>
       </c>
@@ -1824,16 +1824,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="2">
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>914</v>
       </c>
@@ -1844,13 +1844,13 @@
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2">
         <v>3.5289999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1049</v>
       </c>
@@ -1861,13 +1861,13 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="2">
         <v>3.5630000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -1875,13 +1875,13 @@
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2">
         <v>2.294</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -1892,16 +1892,16 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="2">
         <v>13.769</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -1912,16 +1912,16 @@
         <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H51" s="2">
         <v>2.7949999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -1932,16 +1932,16 @@
         <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="2">
         <v>17.263000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -1952,16 +1952,16 @@
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="2">
         <v>6.3529999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54" s="2">
         <v>2.5720000000000001</v>
